--- a/inst/extdata/dowalatrinesurvey.xlsx
+++ b/inst/extdata/dowalatrinesurvey.xlsx
@@ -4349,7 +4349,9 @@
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
       <c r="C6" t="n">
         <v>-13.512983</v>
       </c>
@@ -21919,7 +21921,9 @@
       <c r="A90" t="s">
         <v>840</v>
       </c>
-      <c r="B90"/>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
       <c r="C90" t="n">
         <v>-15.8994657</v>
       </c>
